--- a/results/source_data/ExtendedDataFigure8_lags.xlsx
+++ b/results/source_data/ExtendedDataFigure8_lags.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeanette\Documents\GitHub\gpl-covid\results\source_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D389F2-54F6-48B2-BCAD-CC33A535DC3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23505" yWindow="3225" windowWidth="20310" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23505" yWindow="3225" windowWidth="20310" windowHeight="14970"/>
   </bookViews>
   <sheets>
     <sheet name="panel_a" sheetId="2" r:id="rId1"/>
     <sheet name="panel_b" sheetId="1" r:id="rId2"/>
     <sheet name="panel_c" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="43">
   <si>
     <t>us</t>
   </si>
@@ -156,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -191,14 +185,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -498,14 +484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -522,2758 +508,2758 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>-5.6332100182771683E-2</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="0">
+        <v>-0.056332100182771683</v>
+      </c>
+      <c r="D2" s="0">
         <v>-0.10756020247936249</v>
       </c>
-      <c r="E2">
-        <v>-5.1040998660027981E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="0">
+        <v>-0.0051040998660027981</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>-3.0471600592136383E-2</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="0">
+        <v>-0.030471600592136383</v>
+      </c>
+      <c r="D3" s="0">
         <v>-0.11674950271844864</v>
       </c>
-      <c r="E3">
-        <v>5.5806200951337814E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="0">
+        <v>0.055806200951337814</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>-4.1444700211286545E-2</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="0">
+        <v>-0.041444700211286545</v>
+      </c>
+      <c r="D4" s="0">
         <v>-0.10087499767541885</v>
       </c>
-      <c r="E4">
-        <v>1.7985599115490913E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="0">
+        <v>0.017985599115490913</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>-3.3182200044393539E-2</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="0">
+        <v>-0.033182200044393539</v>
+      </c>
+      <c r="D5" s="0">
         <v>-0.1164994016289711</v>
       </c>
-      <c r="E5">
-        <v>5.0135001540184021E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="0">
+        <v>0.050135001540184021</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>1.7603900283575058E-2</v>
-      </c>
-      <c r="D6">
-        <v>-7.4468702077865601E-2</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="0">
+        <v>0.017603900283575058</v>
+      </c>
+      <c r="D6" s="0">
+        <v>-0.074468702077865601</v>
+      </c>
+      <c r="E6" s="0">
         <v>0.10967650264501572</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>-0.1051424965262413</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>-0.23836269974708557</v>
       </c>
-      <c r="E7">
-        <v>2.8077699244022369E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="0">
+        <v>0.028077699244022369</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>-4.3799400329589844E-2</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="0">
+        <v>-0.043799400329589844</v>
+      </c>
+      <c r="D8" s="0">
         <v>-0.11301679909229279</v>
       </c>
-      <c r="E8">
-        <v>2.5418000295758247E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="0">
+        <v>0.025418000295758247</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>-8.0150000751018524E-2</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="0">
+        <v>-0.080150000751018524</v>
+      </c>
+      <c r="D9" s="0">
         <v>-0.16302239894866943</v>
       </c>
-      <c r="E9">
-        <v>2.722499892115593E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="0">
+        <v>0.002722499892115593</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>-0.10599870234727859</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>-0.18599429726600647</v>
       </c>
-      <c r="E10">
-        <v>-2.6003200560808182E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="0">
+        <v>-0.026003200560808182</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>-4.6190399676561356E-2</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="0">
+        <v>-0.046190399676561356</v>
+      </c>
+      <c r="D11" s="0">
         <v>-0.13127310574054718</v>
       </c>
-      <c r="E11">
-        <v>3.8892298936843872E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="0">
+        <v>0.038892298936843872</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>-0.10915389657020569</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>-0.18193410336971283</v>
       </c>
-      <c r="E12">
-        <v>-3.6373801529407501E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="0">
+        <v>-0.036373801529407501</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>-0.11652249842882156</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>-0.19738869369029999</v>
       </c>
-      <c r="E13">
-        <v>-3.5656299442052841E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="0">
+        <v>-0.035656299442052841</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
-        <v>-5.7672798633575439E-2</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="0">
+        <v>-0.057672798633575439</v>
+      </c>
+      <c r="D14" s="0">
         <v>-0.12127750366926193</v>
       </c>
-      <c r="E14">
-        <v>5.9318002313375473E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="0">
+        <v>0.0059318002313375473</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>-8.6822398006916046E-2</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="0">
+        <v>-0.086822398006916046</v>
+      </c>
+      <c r="D15" s="0">
         <v>-0.15181569755077362</v>
       </c>
-      <c r="E15">
-        <v>-2.1829100325703621E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="0">
+        <v>-0.021829100325703621</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>-0.11223659664392471</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>-0.1611391007900238</v>
       </c>
-      <c r="E16">
-        <v>-6.3334099948406219E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="0">
+        <v>-0.063334099948406219</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>-0.13249200582504272</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>-0.18961919844150543</v>
       </c>
-      <c r="E17">
-        <v>-7.5364701449871063E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="0">
+        <v>-0.075364701449871063</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>-0.12884229421615601</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>-0.19019809365272522</v>
       </c>
-      <c r="E18">
-        <v>-6.7486502230167389E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="0">
+        <v>-0.067486502230167389</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>-0.1097647026181221</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>-0.1690371036529541</v>
       </c>
-      <c r="E19">
-        <v>-5.0492201000452042E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="0">
+        <v>-0.050492201000452042</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20">
-        <v>6.9430500268936157E-2</v>
-      </c>
-      <c r="D20">
-        <v>1.980070024728775E-2</v>
-      </c>
-      <c r="E20">
+      <c r="C20" s="0">
+        <v>0.069430500268936157</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.01980070024728775</v>
+      </c>
+      <c r="E20" s="0">
         <v>0.11906039714813232</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21">
-        <v>4.3250799179077148E-2</v>
-      </c>
-      <c r="D21">
-        <v>-1.4097799547016621E-2</v>
-      </c>
-      <c r="E21">
+      <c r="C21" s="0">
+        <v>0.043250799179077148</v>
+      </c>
+      <c r="D21" s="0">
+        <v>-0.014097799547016621</v>
+      </c>
+      <c r="E21" s="0">
         <v>0.10059940069913864</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C22">
-        <v>4.4092200696468353E-2</v>
-      </c>
-      <c r="D22">
-        <v>-6.1503998003900051E-3</v>
-      </c>
-      <c r="E22">
-        <v>9.4334900379180908E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="C22" s="0">
+        <v>0.044092200696468353</v>
+      </c>
+      <c r="D22" s="0">
+        <v>-0.0061503998003900051</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.094334900379180908</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23">
-        <v>4.4796701520681381E-2</v>
-      </c>
-      <c r="D23">
-        <v>-3.5357598215341568E-2</v>
-      </c>
-      <c r="E23">
+      <c r="C23" s="0">
+        <v>0.044796701520681381</v>
+      </c>
+      <c r="D23" s="0">
+        <v>-0.035357598215341568</v>
+      </c>
+      <c r="E23" s="0">
         <v>0.12495099753141403</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24">
-        <v>2.6171000208705664E-3</v>
-      </c>
-      <c r="D24">
-        <v>-8.6922399699687958E-2</v>
-      </c>
-      <c r="E24">
-        <v>9.2156596481800079E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="C24" s="0">
+        <v>0.0026171000208705664</v>
+      </c>
+      <c r="D24" s="0">
+        <v>-0.086922399699687958</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.092156596481800079</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25">
-        <v>7.463499903678894E-2</v>
-      </c>
-      <c r="D25">
-        <v>-3.2464999239891768E-3</v>
-      </c>
-      <c r="E25">
+      <c r="C25" s="0">
+        <v>0.07463499903678894</v>
+      </c>
+      <c r="D25" s="0">
+        <v>-0.0032464999239891768</v>
+      </c>
+      <c r="E25" s="0">
         <v>0.15251649916172028</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C26">
-        <v>-1.0734300129115582E-2</v>
-      </c>
-      <c r="D26">
-        <v>-4.7528501600027084E-2</v>
-      </c>
-      <c r="E26">
-        <v>2.6059899479150772E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="C26" s="0">
+        <v>-0.010734300129115582</v>
+      </c>
+      <c r="D26" s="0">
+        <v>-0.047528501600027084</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.026059899479150772</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="C27">
-        <v>2.1931000519543886E-3</v>
-      </c>
-      <c r="D27">
-        <v>-3.6403398960828781E-2</v>
-      </c>
-      <c r="E27">
-        <v>4.0789499878883362E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="C27" s="0">
+        <v>0.0021931000519543886</v>
+      </c>
+      <c r="D27" s="0">
+        <v>-0.036403398960828781</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.040789499878883362</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C28">
-        <v>8.4375003352761269E-3</v>
-      </c>
-      <c r="D28">
-        <v>-2.792849950492382E-2</v>
-      </c>
-      <c r="E28">
-        <v>4.4803600758314133E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="C28" s="0">
+        <v>0.0084375003352761269</v>
+      </c>
+      <c r="D28" s="0">
+        <v>-0.02792849950492382</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0.044803600758314133</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29">
-        <v>1.19463000446558E-2</v>
-      </c>
-      <c r="D29">
-        <v>-2.7031600475311279E-2</v>
-      </c>
-      <c r="E29">
-        <v>5.0924099981784821E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="C29" s="0">
+        <v>0.0119463000446558</v>
+      </c>
+      <c r="D29" s="0">
+        <v>-0.027031600475311279</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.050924099981784821</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C30">
-        <v>1.491519995033741E-2</v>
-      </c>
-      <c r="D30">
-        <v>-2.3609999567270279E-2</v>
-      </c>
-      <c r="E30">
-        <v>5.344029888510704E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="C30" s="0">
+        <v>0.01491519995033741</v>
+      </c>
+      <c r="D30" s="0">
+        <v>-0.023609999567270279</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.05344029888510704</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31">
-        <v>1.4948500320315361E-2</v>
-      </c>
-      <c r="D31">
-        <v>-2.0075300708413124E-2</v>
-      </c>
-      <c r="E31">
-        <v>4.9972198903560638E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="C31" s="0">
+        <v>0.014948500320315361</v>
+      </c>
+      <c r="D31" s="0">
+        <v>-0.020075300708413124</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.049972198903560638</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C32">
-        <v>-4.7548398375511169E-2</v>
-      </c>
-      <c r="D32">
-        <v>-8.8010698556900024E-2</v>
-      </c>
-      <c r="E32">
-        <v>-7.0861000567674637E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="C32" s="0">
+        <v>-0.047548398375511169</v>
+      </c>
+      <c r="D32" s="0">
+        <v>-0.088010698556900024</v>
+      </c>
+      <c r="E32" s="0">
+        <v>-0.0070861000567674637</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="C33">
-        <v>-3.1365301460027695E-2</v>
-      </c>
-      <c r="D33">
-        <v>-8.6398199200630188E-2</v>
-      </c>
-      <c r="E33">
-        <v>2.3667700588703156E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="C33" s="0">
+        <v>-0.031365301460027695</v>
+      </c>
+      <c r="D33" s="0">
+        <v>-0.086398199200630188</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.023667700588703156</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
       </c>
-      <c r="C34">
-        <v>-3.6605000495910645E-3</v>
-      </c>
-      <c r="D34">
-        <v>-4.6877201646566391E-2</v>
-      </c>
-      <c r="E34">
-        <v>3.9556298404932022E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="C34" s="0">
+        <v>-0.0036605000495910645</v>
+      </c>
+      <c r="D34" s="0">
+        <v>-0.046877201646566391</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0.039556298404932022</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
-      <c r="C35">
-        <v>-1.3834900222718716E-2</v>
-      </c>
-      <c r="D35">
-        <v>-6.5688297152519226E-2</v>
-      </c>
-      <c r="E35">
-        <v>3.8018599152565002E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="C35" s="0">
+        <v>-0.013834900222718716</v>
+      </c>
+      <c r="D35" s="0">
+        <v>-0.065688297152519226</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0.038018599152565002</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
       </c>
-      <c r="C36">
-        <v>1.429119985550642E-2</v>
-      </c>
-      <c r="D36">
-        <v>-3.5316500812768936E-2</v>
-      </c>
-      <c r="E36">
-        <v>6.3899002969264984E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="C36" s="0">
+        <v>0.01429119985550642</v>
+      </c>
+      <c r="D36" s="0">
+        <v>-0.035316500812768936</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0.063899002969264984</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
       </c>
-      <c r="C37">
-        <v>3.7565898150205612E-2</v>
-      </c>
-      <c r="D37">
-        <v>-4.9661002121865749E-3</v>
-      </c>
-      <c r="E37">
-        <v>8.0097898840904236E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="C37" s="0">
+        <v>0.037565898150205612</v>
+      </c>
+      <c r="D37" s="0">
+        <v>-0.0049661002121865749</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0.080097898840904236</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
       </c>
-      <c r="C38">
-        <v>-9.2321997508406639E-3</v>
-      </c>
-      <c r="D38">
-        <v>-5.0892800092697144E-2</v>
-      </c>
-      <c r="E38">
-        <v>3.2428398728370667E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="C38" s="0">
+        <v>-0.0092321997508406639</v>
+      </c>
+      <c r="D38" s="0">
+        <v>-0.050892800092697144</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0.032428398728370667</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
       </c>
-      <c r="C39">
-        <v>-6.7564998753368855E-3</v>
-      </c>
-      <c r="D39">
-        <v>-5.0530098378658295E-2</v>
-      </c>
-      <c r="E39">
-        <v>3.7017200142145157E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="C39" s="0">
+        <v>-0.0067564998753368855</v>
+      </c>
+      <c r="D39" s="0">
+        <v>-0.050530098378658295</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0.037017200142145157</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
       </c>
-      <c r="C40">
-        <v>-7.9151997342705727E-3</v>
-      </c>
-      <c r="D40">
-        <v>-6.3047401607036591E-2</v>
-      </c>
-      <c r="E40">
-        <v>4.7217100858688354E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="C40" s="0">
+        <v>-0.0079151997342705727</v>
+      </c>
+      <c r="D40" s="0">
+        <v>-0.063047401607036591</v>
+      </c>
+      <c r="E40" s="0">
+        <v>0.047217100858688354</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
       </c>
-      <c r="C41">
-        <v>-2.4137800559401512E-2</v>
-      </c>
-      <c r="D41">
-        <v>-7.7735103666782379E-2</v>
-      </c>
-      <c r="E41">
-        <v>2.9459400102496147E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="C41" s="0">
+        <v>-0.024137800559401512</v>
+      </c>
+      <c r="D41" s="0">
+        <v>-0.077735103666782379</v>
+      </c>
+      <c r="E41" s="0">
+        <v>0.029459400102496147</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
       </c>
-      <c r="C42">
-        <v>-2.4636499583721161E-2</v>
-      </c>
-      <c r="D42">
-        <v>-7.6977498829364777E-2</v>
-      </c>
-      <c r="E42">
-        <v>2.7704499661922455E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="C42" s="0">
+        <v>-0.024636499583721161</v>
+      </c>
+      <c r="D42" s="0">
+        <v>-0.076977498829364777</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0.027704499661922455</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
       </c>
-      <c r="C43">
-        <v>-1.6274500638246536E-2</v>
-      </c>
-      <c r="D43">
-        <v>-6.4876802265644073E-2</v>
-      </c>
-      <c r="E43">
-        <v>3.2327800989151001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="C43" s="0">
+        <v>-0.016274500638246536</v>
+      </c>
+      <c r="D43" s="0">
+        <v>-0.064876802265644073</v>
+      </c>
+      <c r="E43" s="0">
+        <v>0.032327800989151001</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
       </c>
-      <c r="C44">
-        <v>-8.4479697048664093E-2</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="0">
+        <v>-0.084479697048664093</v>
+      </c>
+      <c r="D44" s="0">
         <v>-0.11394000053405762</v>
       </c>
-      <c r="E44">
-        <v>-5.5019501596689224E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" s="0">
+        <v>-0.055019501596689224</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
       </c>
-      <c r="C45">
-        <v>-7.6774202287197113E-2</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="0">
+        <v>-0.076774202287197113</v>
+      </c>
+      <c r="D45" s="0">
         <v>-0.11435209959745407</v>
       </c>
-      <c r="E45">
-        <v>-3.9196200668811798E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45" s="0">
+        <v>-0.039196200668811798</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
       </c>
-      <c r="C46">
-        <v>-7.3533199727535248E-2</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="0">
+        <v>-0.073533199727535248</v>
+      </c>
+      <c r="D46" s="0">
         <v>-0.10563380271196365</v>
       </c>
-      <c r="E46">
-        <v>-4.1432701051235199E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="0">
+        <v>-0.041432701051235199</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
       </c>
-      <c r="C47">
-        <v>-7.6020203530788422E-2</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="0">
+        <v>-0.076020203530788422</v>
+      </c>
+      <c r="D47" s="0">
         <v>-0.10691329836845398</v>
       </c>
-      <c r="E47">
-        <v>-4.5127201825380325E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="0">
+        <v>-0.045127201825380325</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
-      <c r="C48">
-        <v>-7.3169499635696411E-2</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="0">
+        <v>-0.073169499635696411</v>
+      </c>
+      <c r="D48" s="0">
         <v>-0.11737989634275436</v>
       </c>
-      <c r="E48">
-        <v>-2.895909920334816E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="0">
+        <v>-0.02895909920334816</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
         <v>6</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
       </c>
-      <c r="C49">
-        <v>-5.6519698351621628E-2</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="0">
+        <v>-0.056519698351621628</v>
+      </c>
+      <c r="D49" s="0">
         <v>-0.10897570103406906</v>
       </c>
-      <c r="E49">
-        <v>-4.0636998601257801E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="0">
+        <v>-0.0040636998601257801</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
       </c>
-      <c r="C50">
-        <v>-2.9404500499367714E-2</v>
-      </c>
-      <c r="D50">
-        <v>-5.4994698613882065E-2</v>
-      </c>
-      <c r="E50">
-        <v>-3.8143000565469265E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="C50" s="0">
+        <v>-0.029404500499367714</v>
+      </c>
+      <c r="D50" s="0">
+        <v>-0.054994698613882065</v>
+      </c>
+      <c r="E50" s="0">
+        <v>-0.0038143000565469265</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="s">
         <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
       </c>
-      <c r="C51">
-        <v>-4.697670042514801E-2</v>
-      </c>
-      <c r="D51">
-        <v>-7.2750799357891083E-2</v>
-      </c>
-      <c r="E51">
-        <v>-2.1202599629759789E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="C51" s="0">
+        <v>-0.04697670042514801</v>
+      </c>
+      <c r="D51" s="0">
+        <v>-0.072750799357891083</v>
+      </c>
+      <c r="E51" s="0">
+        <v>-0.021202599629759789</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
       </c>
-      <c r="C52">
-        <v>-5.4304301738739014E-2</v>
-      </c>
-      <c r="D52">
-        <v>-7.5445599853992462E-2</v>
-      </c>
-      <c r="E52">
-        <v>-3.3162999898195267E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="C52" s="0">
+        <v>-0.054304301738739014</v>
+      </c>
+      <c r="D52" s="0">
+        <v>-0.075445599853992462</v>
+      </c>
+      <c r="E52" s="0">
+        <v>-0.033162999898195267</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
         <v>6</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
       </c>
-      <c r="C53">
-        <v>-6.2831997871398926E-2</v>
-      </c>
-      <c r="D53">
-        <v>-8.4634900093078613E-2</v>
-      </c>
-      <c r="E53">
-        <v>-4.1028998792171478E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="C53" s="0">
+        <v>-0.062831997871398926</v>
+      </c>
+      <c r="D53" s="0">
+        <v>-0.084634900093078613</v>
+      </c>
+      <c r="E53" s="0">
+        <v>-0.041028998792171478</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
       </c>
-      <c r="C54">
-        <v>-6.7478097975254059E-2</v>
-      </c>
-      <c r="D54">
-        <v>-9.1020002961158752E-2</v>
-      </c>
-      <c r="E54">
-        <v>-4.3936200439929962E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="C54" s="0">
+        <v>-0.067478097975254059</v>
+      </c>
+      <c r="D54" s="0">
+        <v>-0.091020002961158752</v>
+      </c>
+      <c r="E54" s="0">
+        <v>-0.043936200439929962</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
       </c>
-      <c r="C55">
-        <v>-6.9567501544952393E-2</v>
-      </c>
-      <c r="D55">
-        <v>-9.7465001046657562E-2</v>
-      </c>
-      <c r="E55">
-        <v>-4.1669901460409164E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="C55" s="0">
+        <v>-0.069567501544952393</v>
+      </c>
+      <c r="D55" s="0">
+        <v>-0.097465001046657562</v>
+      </c>
+      <c r="E55" s="0">
+        <v>-0.041669901460409164</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
         <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0">
         <v>-0.24313719570636749</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0">
         <v>-0.33929958939552307</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0">
         <v>-0.14697480201721191</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57">
       <c r="A57" t="s">
         <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0">
         <v>-0.17056350409984589</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0">
         <v>-0.26028868556022644</v>
       </c>
-      <c r="E57">
-        <v>-8.0838300287723541E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" s="0">
+        <v>-0.080838300287723541</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
         <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0">
         <v>-0.16984309256076813</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0">
         <v>-0.2709018886089325</v>
       </c>
-      <c r="E58">
-        <v>-6.8784400820732117E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="E58" s="0">
+        <v>-0.068784400820732117</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="s">
         <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0">
         <v>-0.22099119424819946</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0">
         <v>-0.34595799446105957</v>
       </c>
-      <c r="E59">
-        <v>-9.6024401485919952E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="E59" s="0">
+        <v>-0.096024401485919952</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0">
         <v>-0.22435760498046875</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0">
         <v>-0.35085970163345337</v>
       </c>
-      <c r="E60">
-        <v>-9.7855597734451294E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="E60" s="0">
+        <v>-0.097855597734451294</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
         <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0">
         <v>-0.22701770067214966</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0">
         <v>-0.37130150198936462</v>
       </c>
-      <c r="E61">
-        <v>-8.2733899354934692E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="E61" s="0">
+        <v>-0.082733899354934692</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
         <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
       </c>
-      <c r="C62">
-        <v>-8.4429001435637474E-3</v>
-      </c>
-      <c r="D62">
-        <v>-4.4472601264715195E-2</v>
-      </c>
-      <c r="E62">
-        <v>2.7586700394749641E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="C62" s="0">
+        <v>-0.0084429001435637474</v>
+      </c>
+      <c r="D62" s="0">
+        <v>-0.044472601264715195</v>
+      </c>
+      <c r="E62" s="0">
+        <v>0.027586700394749641</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>17</v>
       </c>
-      <c r="C63">
-        <v>-4.9546100199222565E-2</v>
-      </c>
-      <c r="D63">
-        <v>-9.9307000637054443E-2</v>
-      </c>
-      <c r="E63">
-        <v>2.1470000501722097E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="C63" s="0">
+        <v>-0.049546100199222565</v>
+      </c>
+      <c r="D63" s="0">
+        <v>-0.099307000637054443</v>
+      </c>
+      <c r="E63" s="0">
+        <v>0.00021470000501722097</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" t="s">
         <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
       </c>
-      <c r="C64">
-        <v>-5.4213501513004303E-2</v>
-      </c>
-      <c r="D64">
+      <c r="C64" s="0">
+        <v>-0.054213501513004303</v>
+      </c>
+      <c r="D64" s="0">
         <v>-0.1181337982416153</v>
       </c>
-      <c r="E64">
-        <v>9.7067998722195625E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="E64" s="0">
+        <v>0.0097067998722195625</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
         <v>7</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
       </c>
-      <c r="C65">
-        <v>-3.4487999975681305E-2</v>
-      </c>
-      <c r="D65">
+      <c r="C65" s="0">
+        <v>-0.034487999975681305</v>
+      </c>
+      <c r="D65" s="0">
         <v>-0.10307410359382629</v>
       </c>
-      <c r="E65">
-        <v>3.4098200500011444E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="E65" s="0">
+        <v>0.034098200500011444</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" t="s">
         <v>7</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
       </c>
-      <c r="C66">
-        <v>-1.9967200234532356E-2</v>
-      </c>
-      <c r="D66">
-        <v>-8.6046300828456879E-2</v>
-      </c>
-      <c r="E66">
-        <v>4.6112000942230225E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="C66" s="0">
+        <v>-0.019967200234532356</v>
+      </c>
+      <c r="D66" s="0">
+        <v>-0.086046300828456879</v>
+      </c>
+      <c r="E66" s="0">
+        <v>0.046112000942230225</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" t="s">
         <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
       </c>
-      <c r="C67">
-        <v>-4.7021000646054745E-3</v>
-      </c>
-      <c r="D67">
-        <v>-8.5631303489208221E-2</v>
-      </c>
-      <c r="E67">
-        <v>7.6227098703384399E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="C67" s="0">
+        <v>-0.0047021000646054745</v>
+      </c>
+      <c r="D67" s="0">
+        <v>-0.085631303489208221</v>
+      </c>
+      <c r="E67" s="0">
+        <v>0.076227098703384399</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
         <v>7</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
       </c>
-      <c r="C68">
-        <v>3.3575598150491714E-2</v>
-      </c>
-      <c r="D68">
-        <v>-1.7218099907040596E-2</v>
-      </c>
-      <c r="E68">
-        <v>8.4369301795959473E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="C68" s="0">
+        <v>0.033575598150491714</v>
+      </c>
+      <c r="D68" s="0">
+        <v>-0.017218099907040596</v>
+      </c>
+      <c r="E68" s="0">
+        <v>0.084369301795959473</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
         <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
       </c>
-      <c r="C69">
-        <v>-2.9986000154167414E-3</v>
-      </c>
-      <c r="D69">
-        <v>-5.1775101572275162E-2</v>
-      </c>
-      <c r="E69">
-        <v>4.5777801424264908E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="C69" s="0">
+        <v>-0.0029986000154167414</v>
+      </c>
+      <c r="D69" s="0">
+        <v>-0.051775101572275162</v>
+      </c>
+      <c r="E69" s="0">
+        <v>0.045777801424264908</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" t="s">
         <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
       </c>
-      <c r="C70">
-        <v>-1.7226900905370712E-2</v>
-      </c>
-      <c r="D70">
-        <v>-6.7079201340675354E-2</v>
-      </c>
-      <c r="E70">
-        <v>3.2625298947095871E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="C70" s="0">
+        <v>-0.017226900905370712</v>
+      </c>
+      <c r="D70" s="0">
+        <v>-0.067079201340675354</v>
+      </c>
+      <c r="E70" s="0">
+        <v>0.032625298947095871</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
         <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
       </c>
-      <c r="C71">
-        <v>-1.6230199486017227E-2</v>
-      </c>
-      <c r="D71">
-        <v>-7.5400799512863159E-2</v>
-      </c>
-      <c r="E71">
-        <v>4.2940400540828705E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="C71" s="0">
+        <v>-0.016230199486017227</v>
+      </c>
+      <c r="D71" s="0">
+        <v>-0.075400799512863159</v>
+      </c>
+      <c r="E71" s="0">
+        <v>0.042940400540828705</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
         <v>7</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
       </c>
-      <c r="C72">
-        <v>-3.2229598611593246E-2</v>
-      </c>
-      <c r="D72">
-        <v>-9.7260802984237671E-2</v>
-      </c>
-      <c r="E72">
-        <v>3.2801501452922821E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="C72" s="0">
+        <v>-0.032229598611593246</v>
+      </c>
+      <c r="D72" s="0">
+        <v>-0.097260802984237671</v>
+      </c>
+      <c r="E72" s="0">
+        <v>0.032801501452922821</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
         <v>7</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
       </c>
-      <c r="C73">
-        <v>-4.7564100474119186E-2</v>
-      </c>
-      <c r="D73">
-        <v>-9.843839704990387E-2</v>
-      </c>
-      <c r="E73">
-        <v>3.3100999426096678E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="C73" s="0">
+        <v>-0.047564100474119186</v>
+      </c>
+      <c r="D73" s="0">
+        <v>-0.09843839704990387</v>
+      </c>
+      <c r="E73" s="0">
+        <v>0.0033100999426096678</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0">
         <v>-0.3161529004573822</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0">
         <v>-0.37197110056877136</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0">
         <v>-0.26033470034599304</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0">
         <v>-0.38542190194129944</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0">
         <v>-0.44791358709335327</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0">
         <v>-0.32293018698692322</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0">
         <v>-0.37274080514907837</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0">
         <v>-0.44494989514350891</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0">
         <v>-0.30053168535232544</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0">
         <v>-0.36941158771514893</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0">
         <v>-0.49847540259361267</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0">
         <v>-0.24034780263900757</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78">
       <c r="A78" t="s">
         <v>8</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0">
         <v>-0.30194690823554993</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0">
         <v>-0.42135569453239441</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0">
         <v>-0.18253810703754425</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79">
       <c r="A79" t="s">
         <v>8</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0">
         <v>-0.28528809547424316</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0">
         <v>-0.44931790232658386</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0">
         <v>-0.12125830352306366</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80">
       <c r="A80" t="s">
         <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
-      <c r="C80">
-        <v>-7.4010796844959259E-2</v>
-      </c>
-      <c r="D80">
+      <c r="C80" s="0">
+        <v>-0.074010796844959259</v>
+      </c>
+      <c r="D80" s="0">
         <v>-0.11017850041389465</v>
       </c>
-      <c r="E80">
-        <v>-3.784320130944252E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="E80" s="0">
+        <v>-0.03784320130944252</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" t="s">
         <v>8</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
-      <c r="C81">
-        <v>-7.8051097691059113E-2</v>
-      </c>
-      <c r="D81">
+      <c r="C81" s="0">
+        <v>-0.078051097691059113</v>
+      </c>
+      <c r="D81" s="0">
         <v>-0.10492180287837982</v>
       </c>
-      <c r="E81">
-        <v>-5.1180399954319E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="E81" s="0">
+        <v>-0.051180399954319</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" t="s">
         <v>8</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0">
         <v>-0.10111019760370255</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0">
         <v>-0.14005169272422791</v>
       </c>
-      <c r="E82">
-        <v>-6.2168598175048828E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="E82" s="0">
+        <v>-0.062168598175048828</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" t="s">
         <v>8</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0">
         <v>-0.11574780195951462</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0">
         <v>-0.15907770395278931</v>
       </c>
-      <c r="E83">
-        <v>-7.2417899966239929E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="E83" s="0">
+        <v>-0.072417899966239929</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" t="s">
         <v>8</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0">
         <v>-0.13912059366703033</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0">
         <v>-0.20296800136566162</v>
       </c>
-      <c r="E84">
-        <v>-7.5273200869560242E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="E84" s="0">
+        <v>-0.075273200869560242</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" t="s">
         <v>8</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0">
         <v>-0.15070550143718719</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0">
         <v>-0.21933630108833313</v>
       </c>
-      <c r="E85">
-        <v>-8.207479864358902E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="E85" s="0">
+        <v>-0.08207479864358902</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" t="s">
         <v>9</v>
       </c>
       <c r="B86" t="s">
         <v>13</v>
       </c>
-      <c r="C86">
-        <v>0.12369219958782196</v>
-      </c>
-      <c r="D86">
-        <v>1.6469499096274376E-2</v>
-      </c>
-      <c r="E86">
-        <v>0.23091490566730499</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="C86" s="0">
+        <v>0.109449103474617</v>
+      </c>
+      <c r="D86" s="0">
+        <v>-0.0074080000631511211</v>
+      </c>
+      <c r="E86" s="0">
+        <v>0.22630620002746582</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" t="s">
         <v>9</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
       </c>
-      <c r="C87">
-        <v>0.10754650086164474</v>
-      </c>
-      <c r="D87">
-        <v>8.4309997037053108E-3</v>
-      </c>
-      <c r="E87">
-        <v>0.2066618949174881</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="C87" s="0">
+        <v>0.11086250096559525</v>
+      </c>
+      <c r="D87" s="0">
+        <v>-0.0043629999272525311</v>
+      </c>
+      <c r="E87" s="0">
+        <v>0.22608789801597595</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" t="s">
         <v>9</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
       </c>
-      <c r="C88">
-        <v>0.12651149928569794</v>
-      </c>
-      <c r="D88">
-        <v>2.9156699776649475E-2</v>
-      </c>
-      <c r="E88">
-        <v>0.2238662987947464</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="C88" s="0">
+        <v>0.13268910348415375</v>
+      </c>
+      <c r="D88" s="0">
+        <v>0.013171699829399586</v>
+      </c>
+      <c r="E88" s="0">
+        <v>0.25220650434494019</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" t="s">
         <v>9</v>
       </c>
       <c r="B89" t="s">
         <v>13</v>
       </c>
-      <c r="C89">
-        <v>0.11215440183877945</v>
-      </c>
-      <c r="D89">
-        <v>-1.8532700836658478E-2</v>
-      </c>
-      <c r="E89">
-        <v>0.24284149706363678</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="C89" s="0">
+        <v>0.11051350086927414</v>
+      </c>
+      <c r="D89" s="0">
+        <v>-0.046129599213600159</v>
+      </c>
+      <c r="E89" s="0">
+        <v>0.26715660095214844</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" t="s">
         <v>9</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
-      <c r="C90">
-        <v>0.10990940034389496</v>
-      </c>
-      <c r="D90">
-        <v>-2.6917999610304832E-2</v>
-      </c>
-      <c r="E90">
-        <v>0.2467367947101593</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="C90" s="0">
+        <v>0.10775099694728851</v>
+      </c>
+      <c r="D90" s="0">
+        <v>-0.045602999627590179</v>
+      </c>
+      <c r="E90" s="0">
+        <v>0.26110509037971497</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" t="s">
         <v>9</v>
       </c>
       <c r="B91" t="s">
         <v>13</v>
       </c>
-      <c r="C91">
-        <v>0.13815529644489288</v>
-      </c>
-      <c r="D91">
-        <v>-1.038340013474226E-2</v>
-      </c>
-      <c r="E91">
-        <v>0.2866939902305603</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="C91" s="0">
+        <v>0.14393700659275055</v>
+      </c>
+      <c r="D91" s="0">
+        <v>-0.0059678000397980213</v>
+      </c>
+      <c r="E91" s="0">
+        <v>0.2938418984413147</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" t="s">
         <v>9</v>
       </c>
       <c r="B92" t="s">
         <v>17</v>
       </c>
-      <c r="C92">
-        <v>-0.10215809941291809</v>
-      </c>
-      <c r="D92">
-        <v>-0.17269180715084076</v>
-      </c>
-      <c r="E92">
-        <v>-3.1624399125576019E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="C92" s="0">
+        <v>-0.071544401347637177</v>
+      </c>
+      <c r="D92" s="0">
+        <v>-0.13756850361824036</v>
+      </c>
+      <c r="E92" s="0">
+        <v>-0.0055203000083565712</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" t="s">
         <v>9</v>
       </c>
       <c r="B93" t="s">
         <v>17</v>
       </c>
-      <c r="C93">
-        <v>-8.0131500959396362E-2</v>
-      </c>
-      <c r="D93">
-        <v>-0.15138229727745056</v>
-      </c>
-      <c r="E93">
-        <v>-8.8807996362447739E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="C93" s="0">
+        <v>-0.070099897682666779</v>
+      </c>
+      <c r="D93" s="0">
+        <v>-0.13455469906330109</v>
+      </c>
+      <c r="E93" s="0">
+        <v>-0.0056451000273227692</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94" t="s">
         <v>9</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
       </c>
-      <c r="C94">
-        <v>-0.10010310262441635</v>
-      </c>
-      <c r="D94">
-        <v>-0.18676179647445679</v>
-      </c>
-      <c r="E94">
-        <v>-1.3444400392472744E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="C94" s="0">
+        <v>-0.089497700333595276</v>
+      </c>
+      <c r="D94" s="0">
+        <v>-0.16778500378131866</v>
+      </c>
+      <c r="E94" s="0">
+        <v>-0.011210300028324127</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" t="s">
         <v>9</v>
       </c>
       <c r="B95" t="s">
         <v>17</v>
       </c>
-      <c r="C95">
-        <v>-9.9666297435760498E-2</v>
-      </c>
-      <c r="D95">
-        <v>-0.20949509739875793</v>
-      </c>
-      <c r="E95">
-        <v>1.0162400081753731E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="C95" s="0">
+        <v>-0.081848502159118652</v>
+      </c>
+      <c r="D95" s="0">
+        <v>-0.18601010739803314</v>
+      </c>
+      <c r="E95" s="0">
+        <v>0.022313099354505539</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" t="s">
         <v>9</v>
       </c>
       <c r="B96" t="s">
         <v>17</v>
       </c>
-      <c r="C96">
-        <v>-8.3310902118682861E-2</v>
-      </c>
-      <c r="D96">
-        <v>-0.20965449512004852</v>
-      </c>
-      <c r="E96">
-        <v>4.3032601475715637E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="C96" s="0">
+        <v>-0.069333799183368683</v>
+      </c>
+      <c r="D96" s="0">
+        <v>-0.17769299447536469</v>
+      </c>
+      <c r="E96" s="0">
+        <v>0.039025299251079559</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97" t="s">
         <v>9</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
       </c>
-      <c r="C97">
-        <v>-0.10596039891242981</v>
-      </c>
-      <c r="D97">
-        <v>-0.26358550786972046</v>
-      </c>
-      <c r="E97">
-        <v>5.1664698868989944E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="C97" s="0">
+        <v>-0.1044796034693718</v>
+      </c>
+      <c r="D97" s="0">
+        <v>-0.24667090177536011</v>
+      </c>
+      <c r="E97" s="0">
+        <v>0.037711698561906815</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" t="s">
         <v>9</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
       </c>
-      <c r="C98">
-        <v>-7.3203898966312408E-2</v>
-      </c>
-      <c r="D98">
-        <v>-0.24405689537525177</v>
-      </c>
-      <c r="E98">
-        <v>9.7649097442626953E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="C98" s="0">
+        <v>-0.091627001762390137</v>
+      </c>
+      <c r="D98" s="0">
+        <v>-0.27246600389480591</v>
+      </c>
+      <c r="E98" s="0">
+        <v>0.089212000370025635</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99" t="s">
         <v>9</v>
       </c>
       <c r="B99" t="s">
         <v>18</v>
       </c>
-      <c r="C99">
-        <v>-7.0178396999835968E-2</v>
-      </c>
-      <c r="D99">
-        <v>-0.25229090452194214</v>
-      </c>
-      <c r="E99">
-        <v>0.11193399876356125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="C99" s="0">
+        <v>-0.076046198606491089</v>
+      </c>
+      <c r="D99" s="0">
+        <v>-0.25786331295967102</v>
+      </c>
+      <c r="E99" s="0">
+        <v>0.10577090084552765</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100" t="s">
         <v>9</v>
       </c>
       <c r="B100" t="s">
         <v>18</v>
       </c>
-      <c r="C100">
-        <v>-0.10382220149040222</v>
-      </c>
-      <c r="D100">
-        <v>-0.26265048980712891</v>
-      </c>
-      <c r="E100">
-        <v>5.5006198585033417E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="C100" s="0">
+        <v>-0.10961449891328812</v>
+      </c>
+      <c r="D100" s="0">
+        <v>-0.27170878648757935</v>
+      </c>
+      <c r="E100" s="0">
+        <v>0.052479799836874008</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" t="s">
         <v>18</v>
       </c>
-      <c r="C101">
-        <v>-0.17599080502986908</v>
-      </c>
-      <c r="D101">
-        <v>-0.3227246105670929</v>
-      </c>
-      <c r="E101">
-        <v>-2.9257100075483322E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="C101" s="0">
+        <v>-0.1787835955619812</v>
+      </c>
+      <c r="D101" s="0">
+        <v>-0.32672148942947388</v>
+      </c>
+      <c r="E101" s="0">
+        <v>-0.030845599249005318</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" t="s">
         <v>9</v>
       </c>
       <c r="B102" t="s">
         <v>18</v>
       </c>
-      <c r="C102">
-        <v>-4.9095600843429565E-2</v>
-      </c>
-      <c r="D102">
-        <v>-0.26123109459877014</v>
-      </c>
-      <c r="E102">
-        <v>0.16303980350494385</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="C102" s="0">
+        <v>-0.051041901111602783</v>
+      </c>
+      <c r="D102" s="0">
+        <v>-0.26378050446510315</v>
+      </c>
+      <c r="E102" s="0">
+        <v>0.16169680655002594</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103" t="s">
         <v>9</v>
       </c>
       <c r="B103" t="s">
         <v>18</v>
       </c>
-      <c r="C103">
-        <v>-0.29494011402130127</v>
-      </c>
-      <c r="D103">
-        <v>-0.62750977277755737</v>
-      </c>
-      <c r="E103">
-        <v>3.7629500031471252E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="C103" s="0">
+        <v>-0.29473239183425903</v>
+      </c>
+      <c r="D103" s="0">
+        <v>-0.62766540050506592</v>
+      </c>
+      <c r="E103" s="0">
+        <v>0.038200598210096359</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" t="s">
         <v>9</v>
       </c>
       <c r="B104" t="s">
         <v>14</v>
       </c>
-      <c r="C104">
-        <v>-5.2242901176214218E-2</v>
-      </c>
-      <c r="D104">
-        <v>-0.11566790193319321</v>
-      </c>
-      <c r="E104">
-        <v>1.1182099580764771E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="C104" s="0">
+        <v>-0.035843100398778915</v>
+      </c>
+      <c r="D104" s="0">
+        <v>-0.10386709868907928</v>
+      </c>
+      <c r="E104" s="0">
+        <v>0.032180901616811752</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" t="s">
         <v>9</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
       </c>
-      <c r="C105">
-        <v>-6.6445700824260712E-2</v>
-      </c>
-      <c r="D105">
-        <v>-0.13282029330730438</v>
-      </c>
-      <c r="E105">
-        <v>-7.1100002969615161E-5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="C105" s="0">
+        <v>-0.060416799038648605</v>
+      </c>
+      <c r="D105" s="0">
+        <v>-0.12904289364814758</v>
+      </c>
+      <c r="E105" s="0">
+        <v>0.0082093998789787292</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106" t="s">
         <v>9</v>
       </c>
       <c r="B106" t="s">
         <v>14</v>
       </c>
-      <c r="C106">
-        <v>-7.853119820356369E-2</v>
-      </c>
-      <c r="D106">
-        <v>-0.14703859388828278</v>
-      </c>
-      <c r="E106">
-        <v>-1.0023900307714939E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="C106" s="0">
+        <v>-0.072772100567817688</v>
+      </c>
+      <c r="D106" s="0">
+        <v>-0.14425820112228394</v>
+      </c>
+      <c r="E106" s="0">
+        <v>-0.0012859000125899911</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107" t="s">
         <v>9</v>
       </c>
       <c r="B107" t="s">
         <v>14</v>
       </c>
-      <c r="C107">
-        <v>-8.7424300611019135E-2</v>
-      </c>
-      <c r="D107">
-        <v>-0.16739630699157715</v>
-      </c>
-      <c r="E107">
-        <v>-7.4522998183965683E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="C107" s="0">
+        <v>-0.081241302192211151</v>
+      </c>
+      <c r="D107" s="0">
+        <v>-0.1645359992980957</v>
+      </c>
+      <c r="E107" s="0">
+        <v>0.0020534999202936888</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108" t="s">
         <v>9</v>
       </c>
       <c r="B108" t="s">
         <v>14</v>
       </c>
-      <c r="C108">
-        <v>-0.1018168032169342</v>
-      </c>
-      <c r="D108">
-        <v>-0.19681340456008911</v>
-      </c>
-      <c r="E108">
-        <v>-6.8200998939573765E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="C108" s="0">
+        <v>-0.098123699426651001</v>
+      </c>
+      <c r="D108" s="0">
+        <v>-0.19590909779071808</v>
+      </c>
+      <c r="E108" s="0">
+        <v>-0.00033829998574219644</v>
+      </c>
+    </row>
+    <row r="109">
       <c r="A109" t="s">
         <v>9</v>
       </c>
       <c r="B109" t="s">
         <v>14</v>
       </c>
-      <c r="C109">
-        <v>-7.2444498538970947E-2</v>
-      </c>
-      <c r="D109">
-        <v>-0.18888680636882782</v>
-      </c>
-      <c r="E109">
-        <v>4.3997801840305328E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="C109" s="0">
+        <v>-0.072613798081874847</v>
+      </c>
+      <c r="D109" s="0">
+        <v>-0.18992440402507782</v>
+      </c>
+      <c r="E109" s="0">
+        <v>0.04469669982790947</v>
+      </c>
+    </row>
+    <row r="110">
       <c r="A110" t="s">
         <v>9</v>
       </c>
       <c r="B110" t="s">
         <v>19</v>
       </c>
-      <c r="C110">
-        <v>-0.22115370631217957</v>
-      </c>
-      <c r="D110">
-        <v>-0.35418379306793213</v>
-      </c>
-      <c r="E110">
-        <v>-8.8123597204685211E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="C110" s="0">
+        <v>-0.20193339884281158</v>
+      </c>
+      <c r="D110" s="0">
+        <v>-0.34516221284866333</v>
+      </c>
+      <c r="E110" s="0">
+        <v>-0.058704599738121033</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="A111" t="s">
         <v>9</v>
       </c>
       <c r="B111" t="s">
         <v>19</v>
       </c>
-      <c r="C111">
-        <v>-0.2372518926858902</v>
-      </c>
-      <c r="D111">
-        <v>-0.37777149677276611</v>
-      </c>
-      <c r="E111">
-        <v>-9.6732303500175476E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="C111" s="0">
+        <v>-0.23005120456218719</v>
+      </c>
+      <c r="D111" s="0">
+        <v>-0.37059500813484192</v>
+      </c>
+      <c r="E111" s="0">
+        <v>-0.089507296681404114</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112" t="s">
         <v>9</v>
       </c>
       <c r="B112" t="s">
         <v>19</v>
       </c>
-      <c r="C112">
-        <v>-0.22956080734729767</v>
-      </c>
-      <c r="D112">
-        <v>-0.33084410429000854</v>
-      </c>
-      <c r="E112">
-        <v>-0.1282774955034256</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="C112" s="0">
+        <v>-0.22273789346218109</v>
+      </c>
+      <c r="D112" s="0">
+        <v>-0.32684141397476196</v>
+      </c>
+      <c r="E112" s="0">
+        <v>-0.11863440275192261</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113" t="s">
         <v>9</v>
       </c>
       <c r="B113" t="s">
         <v>19</v>
       </c>
-      <c r="C113">
-        <v>-0.1872812956571579</v>
-      </c>
-      <c r="D113">
-        <v>-0.29666021466255188</v>
-      </c>
-      <c r="E113">
-        <v>-7.7902503311634064E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="C113" s="0">
+        <v>-0.18319480121135712</v>
+      </c>
+      <c r="D113" s="0">
+        <v>-0.29410499334335327</v>
+      </c>
+      <c r="E113" s="0">
+        <v>-0.072284601628780365</v>
+      </c>
+    </row>
+    <row r="114">
       <c r="A114" t="s">
         <v>9</v>
       </c>
       <c r="B114" t="s">
         <v>19</v>
       </c>
-      <c r="C114">
-        <v>-0.2946774959564209</v>
-      </c>
-      <c r="D114">
-        <v>-0.44189190864562988</v>
-      </c>
-      <c r="E114">
-        <v>-0.14746299386024475</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="C114" s="0">
+        <v>-0.29198819398880005</v>
+      </c>
+      <c r="D114" s="0">
+        <v>-0.44041529297828674</v>
+      </c>
+      <c r="E114" s="0">
+        <v>-0.14356109499931335</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115" t="s">
         <v>9</v>
       </c>
       <c r="B115" t="s">
         <v>19</v>
       </c>
-      <c r="C115">
-        <v>-0.13767510652542114</v>
-      </c>
-      <c r="D115">
-        <v>-0.3712024986743927</v>
-      </c>
-      <c r="E115">
-        <v>9.5852300524711609E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="C115" s="0">
+        <v>-0.13739140331745148</v>
+      </c>
+      <c r="D115" s="0">
+        <v>-0.37145590782165527</v>
+      </c>
+      <c r="E115" s="0">
+        <v>0.096672996878623962</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" t="s">
         <v>9</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
       </c>
-      <c r="C116">
-        <v>2.8422599658370018E-2</v>
-      </c>
-      <c r="D116">
-        <v>-7.3414802551269531E-2</v>
-      </c>
-      <c r="E116">
-        <v>0.13026009500026703</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="C116" s="0">
+        <v>0.010583300143480301</v>
+      </c>
+      <c r="D116" s="0">
+        <v>-0.095673799514770508</v>
+      </c>
+      <c r="E116" s="0">
+        <v>0.11684049665927887</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117" t="s">
         <v>9</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
       </c>
-      <c r="C117">
-        <v>6.341630220413208E-2</v>
-      </c>
-      <c r="D117">
-        <v>-5.079210177063942E-2</v>
-      </c>
-      <c r="E117">
-        <v>0.17762470245361328</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="C117" s="0">
+        <v>0.054612200707197189</v>
+      </c>
+      <c r="D117" s="0">
+        <v>-0.059611100703477859</v>
+      </c>
+      <c r="E117" s="0">
+        <v>0.16883540153503418</v>
+      </c>
+    </row>
+    <row r="118">
       <c r="A118" t="s">
         <v>9</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
       </c>
-      <c r="C118">
-        <v>8.1021696329116821E-2</v>
-      </c>
-      <c r="D118">
-        <v>-2.5533799082040787E-2</v>
-      </c>
-      <c r="E118">
-        <v>0.18757709860801697</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="C118" s="0">
+        <v>0.072262600064277649</v>
+      </c>
+      <c r="D118" s="0">
+        <v>-0.035487100481987</v>
+      </c>
+      <c r="E118" s="0">
+        <v>0.1800123006105423</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119" t="s">
         <v>9</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
       </c>
-      <c r="C119">
-        <v>8.9685298502445221E-2</v>
-      </c>
-      <c r="D119">
-        <v>-3.0559699982404709E-2</v>
-      </c>
-      <c r="E119">
-        <v>0.20993040502071381</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="C119" s="0">
+        <v>0.082327701151371002</v>
+      </c>
+      <c r="D119" s="0">
+        <v>-0.038458298891782761</v>
+      </c>
+      <c r="E119" s="0">
+        <v>0.20311379432678223</v>
+      </c>
+    </row>
+    <row r="120">
       <c r="A120" t="s">
         <v>9</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
       </c>
-      <c r="C120">
-        <v>0.118818499147892</v>
-      </c>
-      <c r="D120">
-        <v>-6.6730999387800694E-3</v>
-      </c>
-      <c r="E120">
-        <v>0.24431009590625763</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="C120" s="0">
+        <v>0.11464180052280426</v>
+      </c>
+      <c r="D120" s="0">
+        <v>-0.012749100103974342</v>
+      </c>
+      <c r="E120" s="0">
+        <v>0.24203270673751831</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="A121" t="s">
         <v>9</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
       </c>
-      <c r="C121">
-        <v>5.9576701372861862E-2</v>
-      </c>
-      <c r="D121">
-        <v>-7.8303597867488861E-2</v>
-      </c>
-      <c r="E121">
-        <v>0.19745700061321259</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="C121" s="0">
+        <v>0.058571700006723404</v>
+      </c>
+      <c r="D121" s="0">
+        <v>-0.080266103148460388</v>
+      </c>
+      <c r="E121" s="0">
+        <v>0.1974094957113266</v>
+      </c>
+    </row>
+    <row r="122">
       <c r="A122" t="s">
         <v>10</v>
       </c>
       <c r="B122" t="s">
         <v>23</v>
       </c>
-      <c r="C122">
-        <v>1.1527099646627903E-2</v>
-      </c>
-      <c r="D122">
-        <v>-4.9515798687934875E-2</v>
-      </c>
-      <c r="E122">
-        <v>7.2569899260997772E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="C122" s="0">
+        <v>0.011527099646627903</v>
+      </c>
+      <c r="D122" s="0">
+        <v>-0.049515798687934875</v>
+      </c>
+      <c r="E122" s="0">
+        <v>0.072569899260997772</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="A123" t="s">
         <v>10</v>
       </c>
       <c r="B123" t="s">
         <v>23</v>
       </c>
-      <c r="C123">
-        <v>-8.6843995377421379E-3</v>
-      </c>
-      <c r="D123">
-        <v>-6.2157798558473587E-2</v>
-      </c>
-      <c r="E123">
-        <v>4.478909820318222E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="C123" s="0">
+        <v>-0.0086843995377421379</v>
+      </c>
+      <c r="D123" s="0">
+        <v>-0.062157798558473587</v>
+      </c>
+      <c r="E123" s="0">
+        <v>0.04478909820318222</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124" t="s">
         <v>10</v>
       </c>
       <c r="B124" t="s">
         <v>23</v>
       </c>
-      <c r="C124">
-        <v>-3.1061200425028801E-2</v>
-      </c>
-      <c r="D124">
-        <v>-7.2899296879768372E-2</v>
-      </c>
-      <c r="E124">
-        <v>1.0777000337839127E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="C124" s="0">
+        <v>-0.031061200425028801</v>
+      </c>
+      <c r="D124" s="0">
+        <v>-0.072899296879768372</v>
+      </c>
+      <c r="E124" s="0">
+        <v>0.010777000337839127</v>
+      </c>
+    </row>
+    <row r="125">
       <c r="A125" t="s">
         <v>10</v>
       </c>
       <c r="B125" t="s">
         <v>23</v>
       </c>
-      <c r="C125">
-        <v>-6.3822999596595764E-2</v>
-      </c>
-      <c r="D125">
+      <c r="C125" s="0">
+        <v>-0.063822999596595764</v>
+      </c>
+      <c r="D125" s="0">
         <v>-0.10928530246019363</v>
       </c>
-      <c r="E125">
-        <v>-1.8360799178481102E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="E125" s="0">
+        <v>-0.018360799178481102</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126" t="s">
         <v>10</v>
       </c>
       <c r="B126" t="s">
         <v>23</v>
       </c>
-      <c r="C126">
-        <v>-5.9255801141262054E-2</v>
-      </c>
-      <c r="D126">
+      <c r="C126" s="0">
+        <v>-0.059255801141262054</v>
+      </c>
+      <c r="D126" s="0">
         <v>-0.11425860226154327</v>
       </c>
-      <c r="E126">
-        <v>-4.253000020980835E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="E126" s="0">
+        <v>-0.004253000020980835</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="A127" t="s">
         <v>10</v>
       </c>
       <c r="B127" t="s">
         <v>23</v>
       </c>
-      <c r="C127">
-        <v>-8.315189927816391E-2</v>
-      </c>
-      <c r="D127">
+      <c r="C127" s="0">
+        <v>-0.08315189927816391</v>
+      </c>
+      <c r="D127" s="0">
         <v>-0.15886589884757996</v>
       </c>
-      <c r="E127">
-        <v>-7.4379001744091511E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="E127" s="0">
+        <v>-0.0074379001744091511</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="A128" t="s">
         <v>10</v>
       </c>
       <c r="B128" t="s">
         <v>24</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="0">
         <v>-0.28803971409797668</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="0">
         <v>-0.43633389472961426</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="0">
         <v>-0.13974550366401672</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129">
       <c r="A129" t="s">
         <v>10</v>
       </c>
       <c r="B129" t="s">
         <v>24</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="0">
         <v>-0.31275489926338196</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="0">
         <v>-0.47169199585914612</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="0">
         <v>-0.1538178026676178</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130">
       <c r="A130" t="s">
         <v>10</v>
       </c>
       <c r="B130" t="s">
         <v>24</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="0">
         <v>-0.32570910453796387</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="0">
         <v>-0.48825448751449585</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="0">
         <v>-0.16316360235214233</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131">
       <c r="A131" t="s">
         <v>10</v>
       </c>
       <c r="B131" t="s">
         <v>24</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="0">
         <v>-0.30696290731430054</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="0">
         <v>-0.49264359474182129</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="0">
         <v>-0.12128219753503799</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132">
       <c r="A132" t="s">
         <v>10</v>
       </c>
       <c r="B132" t="s">
         <v>24</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="0">
         <v>-0.32761558890342712</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="0">
         <v>-0.55175948143005371</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="0">
         <v>-0.10347159951925278</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133">
       <c r="A133" t="s">
         <v>10</v>
       </c>
       <c r="B133" t="s">
         <v>24</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="0">
         <v>-0.30382460355758667</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="0">
         <v>-0.60693228244781494</v>
       </c>
-      <c r="E133">
-        <v>-7.1679998654872179E-4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="E133" s="0">
+        <v>-0.00071679998654872179</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134" t="s">
         <v>10</v>
       </c>
       <c r="B134" t="s">
         <v>25</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="0">
         <v>-0.11842170357704163</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="0">
         <v>-0.20130950212478638</v>
       </c>
-      <c r="E134">
-        <v>-3.5533998161554337E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="E134" s="0">
+        <v>-0.035533998161554337</v>
+      </c>
+    </row>
+    <row r="135">
       <c r="A135" t="s">
         <v>10</v>
       </c>
       <c r="B135" t="s">
         <v>25</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="0">
         <v>-0.12045329809188843</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="0">
         <v>-0.20358340442180634</v>
       </c>
-      <c r="E135">
-        <v>-3.7323199212551117E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="E135" s="0">
+        <v>-0.037323199212551117</v>
+      </c>
+    </row>
+    <row r="136">
       <c r="A136" t="s">
         <v>10</v>
       </c>
       <c r="B136" t="s">
         <v>25</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="0">
         <v>-0.12224339693784714</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="0">
         <v>-0.20943069458007813</v>
       </c>
-      <c r="E136">
-        <v>-3.5056199878454208E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="E136" s="0">
+        <v>-0.035056199878454208</v>
+      </c>
+    </row>
+    <row r="137">
       <c r="A137" t="s">
         <v>10</v>
       </c>
       <c r="B137" t="s">
         <v>25</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="0">
         <v>-0.12185929715633392</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="0">
         <v>-0.21153199672698975</v>
       </c>
-      <c r="E137">
-        <v>-3.2186601310968399E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="E137" s="0">
+        <v>-0.032186601310968399</v>
+      </c>
+    </row>
+    <row r="138">
       <c r="A138" t="s">
         <v>10</v>
       </c>
       <c r="B138" t="s">
         <v>25</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="0">
         <v>-0.12546789646148682</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="0">
         <v>-0.21812550723552704</v>
       </c>
-      <c r="E138">
-        <v>-3.2810401171445847E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="E138" s="0">
+        <v>-0.032810401171445847</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139" t="s">
         <v>10</v>
       </c>
       <c r="B139" t="s">
         <v>25</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="0">
         <v>-0.1274556964635849</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="0">
         <v>-0.22088049352169037</v>
       </c>
-      <c r="E139">
-        <v>-3.4030899405479431E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="E139" s="0">
+        <v>-0.034030899405479431</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="A140" t="s">
         <v>10</v>
       </c>
       <c r="B140" t="s">
         <v>14</v>
       </c>
-      <c r="C140">
-        <v>1.1742999777197838E-3</v>
-      </c>
-      <c r="D140">
-        <v>-3.6519799381494522E-2</v>
-      </c>
-      <c r="E140">
-        <v>3.886830061674118E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="C140" s="0">
+        <v>0.0011742999777197838</v>
+      </c>
+      <c r="D140" s="0">
+        <v>-0.036519799381494522</v>
+      </c>
+      <c r="E140" s="0">
+        <v>0.03886830061674118</v>
+      </c>
+    </row>
+    <row r="141">
       <c r="A141" t="s">
         <v>10</v>
       </c>
       <c r="B141" t="s">
         <v>14</v>
       </c>
-      <c r="C141">
-        <v>2.1168999373912811E-2</v>
-      </c>
-      <c r="D141">
-        <v>-1.6581600531935692E-2</v>
-      </c>
-      <c r="E141">
-        <v>5.8919601142406464E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="C141" s="0">
+        <v>0.021168999373912811</v>
+      </c>
+      <c r="D141" s="0">
+        <v>-0.016581600531935692</v>
+      </c>
+      <c r="E141" s="0">
+        <v>0.058919601142406464</v>
+      </c>
+    </row>
+    <row r="142">
       <c r="A142" t="s">
         <v>10</v>
       </c>
       <c r="B142" t="s">
         <v>14</v>
       </c>
-      <c r="C142">
-        <v>2.3247199133038521E-2</v>
-      </c>
-      <c r="D142">
-        <v>-1.1351499706506729E-2</v>
-      </c>
-      <c r="E142">
-        <v>5.7845998555421829E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="C142" s="0">
+        <v>0.023247199133038521</v>
+      </c>
+      <c r="D142" s="0">
+        <v>-0.011351499706506729</v>
+      </c>
+      <c r="E142" s="0">
+        <v>0.057845998555421829</v>
+      </c>
+    </row>
+    <row r="143">
       <c r="A143" t="s">
         <v>10</v>
       </c>
       <c r="B143" t="s">
         <v>14</v>
       </c>
-      <c r="C143">
-        <v>2.6719400659203529E-2</v>
-      </c>
-      <c r="D143">
-        <v>-1.7189500853419304E-2</v>
-      </c>
-      <c r="E143">
-        <v>7.0628203451633453E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="C143" s="0">
+        <v>0.026719400659203529</v>
+      </c>
+      <c r="D143" s="0">
+        <v>-0.017189500853419304</v>
+      </c>
+      <c r="E143" s="0">
+        <v>0.070628203451633453</v>
+      </c>
+    </row>
+    <row r="144">
       <c r="A144" t="s">
         <v>10</v>
       </c>
       <c r="B144" t="s">
         <v>14</v>
       </c>
-      <c r="C144">
-        <v>2.0646700635552406E-2</v>
-      </c>
-      <c r="D144">
-        <v>-1.7602499574422836E-2</v>
-      </c>
-      <c r="E144">
-        <v>5.889580026268959E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="C144" s="0">
+        <v>0.020646700635552406</v>
+      </c>
+      <c r="D144" s="0">
+        <v>-0.017602499574422836</v>
+      </c>
+      <c r="E144" s="0">
+        <v>0.05889580026268959</v>
+      </c>
+    </row>
+    <row r="145">
       <c r="A145" t="s">
         <v>10</v>
       </c>
       <c r="B145" t="s">
         <v>14</v>
       </c>
-      <c r="C145">
-        <v>2.0179999992251396E-2</v>
-      </c>
-      <c r="D145">
-        <v>-1.8105700612068176E-2</v>
-      </c>
-      <c r="E145">
-        <v>5.8465801179409027E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="C145" s="0">
+        <v>0.020179999992251396</v>
+      </c>
+      <c r="D145" s="0">
+        <v>-0.018105700612068176</v>
+      </c>
+      <c r="E145" s="0">
+        <v>0.058465801179409027</v>
+      </c>
+    </row>
+    <row r="146">
       <c r="A146" t="s">
         <v>7</v>
       </c>
       <c r="B146" t="s">
         <v>21</v>
       </c>
-      <c r="C146">
-        <v>-8.5221201181411743E-2</v>
-      </c>
-      <c r="D146">
+      <c r="C146" s="0">
+        <v>-0.085221201181411743</v>
+      </c>
+      <c r="D146" s="0">
         <v>-0.16009250283241272</v>
       </c>
-      <c r="E146">
-        <v>-1.0349799878895283E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="E146" s="0">
+        <v>-0.010349799878895283</v>
+      </c>
+    </row>
+    <row r="147">
       <c r="A147" t="s">
         <v>7</v>
       </c>
       <c r="B147" t="s">
         <v>17</v>
       </c>
-      <c r="C147">
-        <v>1.472609955817461E-2</v>
-      </c>
-      <c r="D147">
-        <v>-5.6175298988819122E-2</v>
-      </c>
-      <c r="E147">
-        <v>8.5627399384975433E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="C147" s="0">
+        <v>0.01472609955817461</v>
+      </c>
+      <c r="D147" s="0">
+        <v>-0.056175298988819122</v>
+      </c>
+      <c r="E147" s="0">
+        <v>0.085627399384975433</v>
+      </c>
+    </row>
+    <row r="148">
       <c r="A148" t="s">
         <v>7</v>
       </c>
       <c r="B148" t="s">
         <v>13</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="0">
         <v>-0.30423951148986816</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="0">
         <v>-0.59496891498565674</v>
       </c>
-      <c r="E148">
-        <v>-1.3509999960660934E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="E148" s="0">
+        <v>-0.013509999960660934</v>
+      </c>
+    </row>
+    <row r="149">
       <c r="A149" t="s">
         <v>7</v>
       </c>
       <c r="B149" t="s">
         <v>21</v>
       </c>
-      <c r="C149">
-        <v>-7.8261397778987885E-2</v>
-      </c>
-      <c r="D149">
+      <c r="C149" s="0">
+        <v>-0.078261397778987885</v>
+      </c>
+      <c r="D149" s="0">
         <v>-0.16806450486183167</v>
       </c>
-      <c r="E149">
-        <v>1.154169999063015E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="E149" s="0">
+        <v>0.01154169999063015</v>
+      </c>
+    </row>
+    <row r="150">
       <c r="A150" t="s">
         <v>7</v>
       </c>
       <c r="B150" t="s">
         <v>17</v>
       </c>
-      <c r="C150">
-        <v>-6.5064698457717896E-2</v>
-      </c>
-      <c r="D150">
+      <c r="C150" s="0">
+        <v>-0.065064698457717896</v>
+      </c>
+      <c r="D150" s="0">
         <v>-0.21074590086936951</v>
       </c>
-      <c r="E150">
-        <v>8.0616496503353119E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="E150" s="0">
+        <v>0.080616496503353119</v>
+      </c>
+    </row>
+    <row r="151">
       <c r="A151" t="s">
         <v>7</v>
       </c>
       <c r="B151" t="s">
         <v>13</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="0">
         <v>-0.21668089926242828</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="0">
         <v>-0.43788638710975647</v>
       </c>
-      <c r="E151">
-        <v>4.5245001092553139E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="E151" s="0">
+        <v>0.0045245001092553139</v>
+      </c>
+    </row>
+    <row r="152">
       <c r="A152" t="s">
         <v>7</v>
       </c>
       <c r="B152" t="s">
         <v>21</v>
       </c>
-      <c r="C152">
-        <v>-8.3214700222015381E-2</v>
-      </c>
-      <c r="D152">
+      <c r="C152" s="0">
+        <v>-0.083214700222015381</v>
+      </c>
+      <c r="D152" s="0">
         <v>-0.16699209809303284</v>
       </c>
-      <c r="E152">
-        <v>5.6279997806996107E-4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="E152" s="0">
+        <v>0.00056279997806996107</v>
+      </c>
+    </row>
+    <row r="153">
       <c r="A153" t="s">
         <v>7</v>
       </c>
       <c r="B153" t="s">
         <v>17</v>
       </c>
-      <c r="C153">
-        <v>-5.6018300354480743E-2</v>
-      </c>
-      <c r="D153">
+      <c r="C153" s="0">
+        <v>-0.056018300354480743</v>
+      </c>
+      <c r="D153" s="0">
         <v>-0.19589079916477203</v>
       </c>
-      <c r="E153">
-        <v>8.3854101598262787E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="E153" s="0">
+        <v>0.083854101598262787</v>
+      </c>
+    </row>
+    <row r="154">
       <c r="A154" t="s">
         <v>7</v>
       </c>
       <c r="B154" t="s">
         <v>13</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="0">
         <v>-0.18065080046653748</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="0">
         <v>-0.36763650178909302</v>
       </c>
-      <c r="E154">
-        <v>6.3347998075187206E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="E154" s="0">
+        <v>0.0063347998075187206</v>
+      </c>
+    </row>
+    <row r="155">
       <c r="A155" t="s">
         <v>7</v>
       </c>
       <c r="B155" t="s">
         <v>21</v>
       </c>
-      <c r="C155">
-        <v>-8.5748203098773956E-2</v>
-      </c>
-      <c r="D155">
+      <c r="C155" s="0">
+        <v>-0.085748203098773956</v>
+      </c>
+      <c r="D155" s="0">
         <v>-0.16503910720348358</v>
       </c>
-      <c r="E155">
-        <v>-6.4574000425636768E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="E155" s="0">
+        <v>-0.0064574000425636768</v>
+      </c>
+    </row>
+    <row r="156">
       <c r="A156" t="s">
         <v>7</v>
       </c>
       <c r="B156" t="s">
         <v>17</v>
       </c>
-      <c r="C156">
-        <v>-8.0451697111129761E-2</v>
-      </c>
-      <c r="D156">
+      <c r="C156" s="0">
+        <v>-0.080451697111129761</v>
+      </c>
+      <c r="D156" s="0">
         <v>-0.21725210547447205</v>
       </c>
-      <c r="E156">
-        <v>5.6348800659179688E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="E156" s="0">
+        <v>0.056348800659179688</v>
+      </c>
+    </row>
+    <row r="157">
       <c r="A157" t="s">
         <v>7</v>
       </c>
       <c r="B157" t="s">
         <v>13</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="0">
         <v>-0.1414840966463089</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="0">
         <v>-0.29155060648918152</v>
       </c>
-      <c r="E157">
-        <v>8.5824001580476761E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="E157" s="0">
+        <v>0.0085824001580476761</v>
+      </c>
+    </row>
+    <row r="158">
       <c r="A158" t="s">
         <v>7</v>
       </c>
       <c r="B158" t="s">
         <v>21</v>
       </c>
-      <c r="C158">
-        <v>-9.5031403005123138E-2</v>
-      </c>
-      <c r="D158">
+      <c r="C158" s="0">
+        <v>-0.095031403005123138</v>
+      </c>
+      <c r="D158" s="0">
         <v>-0.15572540462017059</v>
       </c>
-      <c r="E158">
-        <v>-3.4337300807237625E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="E158" s="0">
+        <v>-0.034337300807237625</v>
+      </c>
+    </row>
+    <row r="159">
       <c r="A159" t="s">
         <v>7</v>
       </c>
       <c r="B159" t="s">
         <v>17</v>
       </c>
-      <c r="C159">
-        <v>-8.0035299062728882E-2</v>
-      </c>
-      <c r="D159">
+      <c r="C159" s="0">
+        <v>-0.080035299062728882</v>
+      </c>
+      <c r="D159" s="0">
         <v>-0.19611060619354248</v>
       </c>
-      <c r="E159">
-        <v>3.604000061750412E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="E159" s="0">
+        <v>0.03604000061750412</v>
+      </c>
+    </row>
+    <row r="160">
       <c r="A160" t="s">
         <v>7</v>
       </c>
       <c r="B160" t="s">
         <v>13</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="0">
         <v>-0.10340250283479691</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="0">
         <v>-0.22275279462337494</v>
       </c>
-      <c r="E160">
-        <v>1.5947699546813965E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="E160" s="0">
+        <v>0.015947699546813965</v>
+      </c>
+    </row>
+    <row r="161">
       <c r="A161" t="s">
         <v>7</v>
       </c>
       <c r="B161" t="s">
         <v>21</v>
       </c>
-      <c r="C161">
-        <v>-9.1561801731586456E-2</v>
-      </c>
-      <c r="D161">
+      <c r="C161" s="0">
+        <v>-0.091561801731586456</v>
+      </c>
+      <c r="D161" s="0">
         <v>-0.14560990035533905</v>
       </c>
-      <c r="E161">
-        <v>-3.7513699382543564E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="E161" s="0">
+        <v>-0.037513699382543564</v>
+      </c>
+    </row>
+    <row r="162">
       <c r="A162" t="s">
         <v>7</v>
       </c>
       <c r="B162" t="s">
         <v>17</v>
       </c>
-      <c r="C162">
-        <v>-6.5582200884819031E-2</v>
-      </c>
-      <c r="D162">
+      <c r="C162" s="0">
+        <v>-0.065582200884819031</v>
+      </c>
+      <c r="D162" s="0">
         <v>-0.1693217009305954</v>
       </c>
-      <c r="E162">
-        <v>3.8157299160957336E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="E162" s="0">
+        <v>0.038157299160957336</v>
+      </c>
+    </row>
+    <row r="163">
       <c r="A163" t="s">
         <v>7</v>
       </c>
       <c r="B163" t="s">
         <v>13</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="0">
         <v>-0.1187869980931282</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="0">
         <v>-0.23786389827728271</v>
       </c>
-      <c r="E163">
-        <v>2.8989999555051327E-4</v>
+      <c r="E163" s="0">
+        <v>0.00028989999555051327</v>
       </c>
     </row>
   </sheetData>
@@ -3282,14 +3268,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -3309,323 +3295,323 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" s="0">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>0.23181934654712677</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>0.31242671608924866</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.29714646935462952</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0.30193653702735901</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>0.280570387840271</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>0.22948598861694336</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>0.31771978735923767</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0.32686534523963928</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0.30193650722503662</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>0.29767808318138123</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>0.24363245069980621</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>0.32881000638008118</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.35002753138542175</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.29931876063346863</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>0.30145007371902466</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>0.24472054839134216</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>0.3129630982875824</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>0.37457647919654846</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>0.30130875110626221</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>0.31369751691818237</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>0.24855084717273712</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>0.30478754639625549</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>0.39304912090301514</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>0.30647537112236023</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>0.30930596590042114</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="0">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>0.24014408886432648</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>0.3075079619884491</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>0.38205805420875549</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>0.31476083397865295</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>0.28975671529769897</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="0">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0">
         <v>0.23417806625366211</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>0.29653763771057129</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>0.38279885053634644</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>0.30730077624320984</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>0.2875497043132782</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>0.24025264382362366</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>0.27797049283981323</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>0.35442245006561279</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>0.31566473841667175</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>0.26751077175140381</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" s="0">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>0.23550085723400116</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>0.26366797089576721</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>0.31690052151679993</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>0.31042590737342834</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>0.24179553985595703</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>0.24521960318088531</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>0.25027880072593689</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>0.29959288239479065</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>0.31543931365013123</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>0.22909201681613922</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>0.23993898928165436</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>0.23256926238536835</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>0.28787511587142944</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>0.32376077771186829</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>0.21540489792823792</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" s="0">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>0.2358463853597641</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>0.21780940890312195</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>0.27702182531356812</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>0.31622827053070068</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>0.21216312050819397</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="0">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>0.23439641296863556</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>0.20482936501502991</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>0.26219266653060913</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>0.31255805492401123</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>0.20137989521026611</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" s="0">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>0.22927215695381165</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>0.19412219524383545</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>0.2598719596862793</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>0.3142678439617157</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>0.18796758353710175</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" s="0">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>0.2200695127248764</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>0.18463544547557831</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>0.26000010967254639</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>0.30907920002937317</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>0.19035698473453522</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" s="0">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>0.21544615924358368</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>0.17757156491279602</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>0.24156822264194489</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>0.30068597197532654</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>0.17919610440731049</v>
       </c>
     </row>
@@ -3635,14 +3621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3656,144 +3642,144 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>0.14100000262260437</v>
       </c>
-      <c r="D2">
-        <v>1.9999999552965164E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="0">
+        <v>0.019999999552965164</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>0.12399999797344208</v>
       </c>
-      <c r="D3">
-        <v>1.4000000432133675E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="0">
+        <v>0.014000000432133675</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>0.12099999934434891</v>
       </c>
-      <c r="D4">
-        <v>1.7000000923871994E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="0">
+        <v>0.017000000923871994</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>0.13899999856948853</v>
       </c>
-      <c r="D5">
-        <v>1.8999999389052391E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="0">
+        <v>0.018999999389052391</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>0.11400000005960464</v>
       </c>
-      <c r="D6">
-        <v>1.6000000759959221E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="0">
+        <v>0.016000000759959221</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7">
-        <v>9.0000003576278687E-2</v>
-      </c>
-      <c r="D7">
-        <v>1.2000000104308128E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="0">
+        <v>0.090000003576278687</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.012000000104308128</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8">
-        <v>8.3999998867511749E-2</v>
-      </c>
-      <c r="D8">
-        <v>8.0000003799796104E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="0">
+        <v>0.083999998867511749</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.0080000003799796104</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9">
-        <v>5.9999998658895493E-2</v>
-      </c>
-      <c r="D9">
-        <v>8.999999612569809E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="0">
+        <v>0.059999998658895493</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.008999999612569809</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10">
-        <v>5.0999999046325684E-2</v>
-      </c>
-      <c r="D10">
-        <v>8.0000003799796104E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" s="0">
+        <v>0.050999999046325684</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.0080000003799796104</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11">
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="D11">
-        <v>7.0000002160668373E-3</v>
+      <c r="C11" s="0">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.0070000002160668373</v>
       </c>
     </row>
   </sheetData>
